--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,21 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -91,64 +73,67 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>confidence</t>
@@ -157,97 +142,76 @@
     <t>ensure</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>security</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>join</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -605,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -674,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -692,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>0.9615384615384616</v>
+      </c>
+      <c r="L3">
         <v>25</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>7</v>
-      </c>
       <c r="M3">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -716,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -724,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.613013698630137</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -766,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -774,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.92</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9583333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -874,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7662337662337663</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C7">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.1866666666666667</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7058823529411765</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>426</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.9</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,519 +1088,375 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4583333333333333</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>237</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L13">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0.796875</v>
+      </c>
+      <c r="L14">
+        <v>102</v>
+      </c>
+      <c r="M14">
+        <v>102</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L15">
+        <v>46</v>
+      </c>
+      <c r="M15">
+        <v>46</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L16">
+        <v>95</v>
+      </c>
+      <c r="M16">
+        <v>95</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>0.7464788732394366</v>
+      </c>
+      <c r="L18">
+        <v>106</v>
+      </c>
+      <c r="M18">
+        <v>106</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L19">
+        <v>79</v>
+      </c>
+      <c r="M19">
+        <v>79</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="L20">
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0.7254901960784313</v>
+      </c>
+      <c r="L21">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>37</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22">
+        <v>0.7</v>
+      </c>
+      <c r="L22">
+        <v>112</v>
+      </c>
+      <c r="M22">
+        <v>112</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L23">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>16</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>13</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.4375</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>18</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>8</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3433476394849785</v>
-      </c>
-      <c r="C15">
-        <v>80</v>
-      </c>
-      <c r="D15">
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>153</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L15">
-        <v>8</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>62</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L16">
-        <v>45</v>
-      </c>
-      <c r="M16">
-        <v>45</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.225</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>62</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L17">
-        <v>43</v>
-      </c>
-      <c r="M17">
-        <v>43</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>102</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L18">
-        <v>47</v>
-      </c>
-      <c r="M18">
-        <v>47</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K19">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L20">
-        <v>22</v>
-      </c>
-      <c r="M20">
-        <v>22</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L21">
-        <v>44</v>
-      </c>
-      <c r="M21">
-        <v>44</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L22">
-        <v>10</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23">
-        <v>0.76</v>
-      </c>
-      <c r="L23">
-        <v>19</v>
-      </c>
-      <c r="M23">
-        <v>19</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
-        <v>0.75</v>
-      </c>
-      <c r="L24">
-        <v>9</v>
-      </c>
-      <c r="M24">
-        <v>9</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K25">
-        <v>0.7241379310344828</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1651,174 +1471,174 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>0.62</v>
+      </c>
+      <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L27">
+        <v>39</v>
+      </c>
+      <c r="M27">
+        <v>39</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28">
+        <v>0.6176470588235294</v>
+      </c>
+      <c r="L28">
+        <v>21</v>
+      </c>
+      <c r="M28">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K30">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L30">
+        <v>56</v>
+      </c>
+      <c r="M30">
+        <v>56</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L31">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K26">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L26">
-        <v>42</v>
-      </c>
-      <c r="M26">
-        <v>42</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27">
-        <v>0.717948717948718</v>
-      </c>
-      <c r="L27">
-        <v>28</v>
-      </c>
-      <c r="M27">
-        <v>28</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L28">
-        <v>12</v>
-      </c>
-      <c r="M28">
-        <v>12</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L29">
-        <v>9</v>
-      </c>
-      <c r="M29">
-        <v>9</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="L30">
-        <v>50</v>
-      </c>
-      <c r="M30">
-        <v>50</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K32">
-        <v>0.6470588235294118</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1830,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1856,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.631578947368421</v>
+        <v>0.475</v>
       </c>
       <c r="L34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1882,21 +1702,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.6153846153846154</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1908,21 +1728,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K36">
-        <v>0.5833333333333334</v>
+        <v>0.4529411764705882</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="M36">
-        <v>7</v>
+        <v>154</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1934,21 +1754,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>0.5454545454545454</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1960,21 +1780,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K38">
-        <v>0.5384615384615384</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>128</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1986,21 +1806,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K39">
-        <v>0.5333333333333333</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2012,21 +1832,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K40">
-        <v>0.5208333333333334</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L40">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2038,15 +1858,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="K41">
-        <v>0.52</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L41">
         <v>13</v>
@@ -2064,21 +1884,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>0.5070422535211268</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L42">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2090,21 +1910,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K43">
-        <v>0.4857142857142857</v>
+        <v>0.3138075313807531</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2116,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>0.4651162790697674</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L44">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2142,21 +1962,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>0.45</v>
+        <v>0.296875</v>
       </c>
       <c r="L45">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2168,21 +1988,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.4347826086956522</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L46">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2194,21 +2014,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K47">
-        <v>0.4285714285714285</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L47">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2220,21 +2040,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K48">
-        <v>0.35</v>
+        <v>0.02125279642058166</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2246,189 +2066,33 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>13</v>
+        <v>875</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K49">
-        <v>0.3333333333333333</v>
+        <v>0.006121134020618557</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50">
-        <v>0.32</v>
-      </c>
-      <c r="L50">
-        <v>8</v>
-      </c>
-      <c r="M50">
-        <v>8</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K51">
-        <v>0.2972972972972973</v>
-      </c>
-      <c r="L51">
-        <v>11</v>
-      </c>
-      <c r="M51">
-        <v>11</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="10:17">
-      <c r="J52" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52">
-        <v>0.28125</v>
-      </c>
-      <c r="L52">
-        <v>9</v>
-      </c>
-      <c r="M52">
-        <v>9</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="10:17">
-      <c r="J53" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K53">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="L53">
-        <v>10</v>
-      </c>
-      <c r="M53">
-        <v>10</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="10:17">
-      <c r="J54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K54">
-        <v>0.03535353535353535</v>
-      </c>
-      <c r="L54">
-        <v>7</v>
-      </c>
-      <c r="M54">
-        <v>7</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="55" spans="10:17">
-      <c r="J55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55">
-        <v>0.02195121951219512</v>
-      </c>
-      <c r="L55">
-        <v>9</v>
-      </c>
-      <c r="M55">
-        <v>9</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>401</v>
+        <v>3085</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,19 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
+    <t>warning</t>
   </si>
   <si>
     <t>emergency</t>
@@ -67,79 +76,85 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>nice</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
@@ -151,64 +166,64 @@
     <t>credit</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>dear</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>ready</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>co</t>
@@ -569,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.613013698630137</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -788,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5862068965517241</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -838,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5769230769230769</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1866666666666667</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.9130434782608695</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1744186046511628</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>426</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.164021164021164</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1610738255033557</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8414634146341463</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L11">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="M11">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05952380952380952</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>237</v>
+        <v>424</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,21 +1145,45 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>162</v>
+      </c>
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,21 +1195,45 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.08724832214765101</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>136</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.796875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L14">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7931034482758621</v>
+        <v>0.796875</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1208,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1234,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.7857142857142857</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L17">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1260,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1286,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.7452830188679245</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L19">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1312,12 +1375,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>0.7407407407407407</v>
@@ -1343,16 +1406,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.7254901960784313</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L21">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1364,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L22">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="M22">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1390,12 +1453,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>0.6956521739130435</v>
@@ -1421,16 +1484,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.6944444444444444</v>
+        <v>0.6875</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1442,47 +1505,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L25">
+        <v>35</v>
+      </c>
+      <c r="M25">
+        <v>35</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>16</v>
-      </c>
-      <c r="M25">
-        <v>16</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.62</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1494,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.6190476190476191</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1520,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.6176470588235294</v>
+        <v>0.625</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1546,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.6170212765957447</v>
+        <v>0.62</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1572,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.5957446808510638</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L30">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1598,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5416666666666666</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1624,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.5013054830287206</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L32">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="M32">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1650,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>191</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1676,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.475</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1702,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1728,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4529411764705882</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1754,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.4444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1780,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.4338983050847458</v>
+        <v>0.45</v>
       </c>
       <c r="L38">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1806,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>167</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.4269662921348314</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1832,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1858,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.3714285714285714</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L41">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="M41">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1884,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>22</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.3424657534246575</v>
+        <v>0.3698630136986301</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1910,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.3138075313807531</v>
+        <v>0.359375</v>
       </c>
       <c r="L43">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1936,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>164</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.3023255813953488</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1962,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.296875</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1988,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.282051282051282</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2014,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K47">
-        <v>0.2142857142857143</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2040,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.02125279642058166</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2066,33 +2129,111 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>875</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.006121134020618557</v>
+        <v>0.03125</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>3085</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50">
+        <v>0.01901565995525727</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>17</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K51">
+        <v>0.00794392523364486</v>
+      </c>
+      <c r="L51">
+        <v>17</v>
+      </c>
+      <c r="M51">
+        <v>20</v>
+      </c>
+      <c r="N51">
+        <v>0.85</v>
+      </c>
+      <c r="O51">
+        <v>0.15</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K52">
+        <v>0.004505954296749276</v>
+      </c>
+      <c r="L52">
+        <v>14</v>
+      </c>
+      <c r="M52">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>3093</v>
       </c>
     </row>
   </sheetData>
